--- a/app/config/tables/farm_field/forms/farm_field/farm_field.xlsx
+++ b/app/config/tables/farm_field/forms/farm_field/farm_field.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="6680" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="5800" yWindow="6680" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="2" r:id="rId1"/>
-    <sheet name="properties" sheetId="3" r:id="rId2"/>
-    <sheet name="model" sheetId="4" r:id="rId3"/>
-    <sheet name="settings" sheetId="5" r:id="rId4"/>
-    <sheet name="queries" sheetId="6" r:id="rId5"/>
-    <sheet name="crops" sheetId="7" r:id="rId6"/>
-    <sheet name="calculates" sheetId="8" r:id="rId7"/>
+    <sheet name="model" sheetId="4" r:id="rId2"/>
+    <sheet name="settings" sheetId="5" r:id="rId3"/>
+    <sheet name="queries" sheetId="6" r:id="rId4"/>
+    <sheet name="crops" sheetId="7" r:id="rId5"/>
+    <sheet name="calculates" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>clause</t>
   </si>
@@ -63,30 +62,9 @@
     <t>integer</t>
   </si>
   <si>
-    <t>partition</t>
-  </si>
-  <si>
-    <t>aspect</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>colOrder</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
     <t>farm_name</t>
   </si>
   <si>
@@ -208,9 +186,6 @@
   </si>
   <si>
     <t>farm_uuid</t>
-  </si>
-  <si>
-    <t>["farm_name","farm_uuid","farm_state", "farm_city", "location_latitude","location_longitude","location_altitude","location_accuracy","farm_num_employee","farm_revenue","field_name","field_uuid"]</t>
   </si>
   <si>
     <t>crops</t>
@@ -748,10 +723,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60">
@@ -763,7 +738,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -777,10 +752,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -793,23 +768,23 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -855,50 +830,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -909,101 +939,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="2">
+        <v>20160210</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1018,92 +1022,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="30">
-      <c r="A1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2">
-        <v>20160210</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1114,50 +1035,50 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="37">
       <c r="A2" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -1206,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>8</v>
@@ -1221,10 +1142,10 @@
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
@@ -1234,20 +1155,20 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1275,18 +1196,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/farm_field/forms/farm_field/farm_field.xlsx
+++ b/app/config/tables/farm_field/forms/farm_field/farm_field.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\farm_field\forms\farm_field\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="6680" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5799" yWindow="6676" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="2" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>clause</t>
   </si>
@@ -32,9 +37,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
     <t>condition</t>
   </si>
   <si>
@@ -44,15 +46,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>hideInContents</t>
   </si>
   <si>
-    <t>display.new_instance_text</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -95,9 +91,6 @@
     <t>setting_name</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -213,12 +206,24 @@
   </si>
   <si>
     <t>'field_uuid='+opendatakit.encodeURIDataElement('field_uuid')</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.new_instance_label.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -361,6 +366,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -686,105 +699,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="60">
+      <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="45">
+    </row>
+    <row r="3" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" t="b">
+      <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -793,9 +805,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -804,9 +815,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -815,7 +825,6 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -832,97 +841,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
     </row>
@@ -941,72 +950,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30">
+    <row r="1" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>20160210</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1028,57 +1040,57 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" ht="37">
+    <row r="2" spans="1:9" ht="38.65" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1096,79 +1108,85 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="30.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="90">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="78.55" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="60">
+    <row r="3" spans="1:10" ht="62.85" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1189,25 +1207,25 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="62.1640625" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/farm_field/forms/farm_field/farm_field.xlsx
+++ b/app/config/tables/farm_field/forms/farm_field/farm_field.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5799" yWindow="6676" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5799" yWindow="6676" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>clause</t>
   </si>
@@ -133,9 +133,6 @@
     <t>selectionArgs</t>
   </si>
   <si>
-    <t>auxillaryHash</t>
-  </si>
-  <si>
     <t>linked_crops</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>opendatakit.getCurrentInstanceId()</t>
   </si>
   <si>
-    <t>'field_uuid='+opendatakit.encodeURIDataElement('field_uuid')</t>
-  </si>
-  <si>
     <t>display.prompt.text</t>
   </si>
   <si>
@@ -218,6 +212,18 @@
   </si>
   <si>
     <t>display.new_instance_label.text</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{ field_uuid: data('field_uuid') }</t>
   </si>
 </sst>
 </file>
@@ -729,19 +735,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
@@ -753,7 +759,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -766,10 +772,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -781,22 +787,22 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -865,7 +871,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -913,7 +919,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -921,7 +927,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -950,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -967,7 +973,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1007,10 +1013,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1018,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1036,13 +1042,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1065,17 +1073,19 @@
         <v>33</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="38.65" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>21</v>
@@ -1084,13 +1094,16 @@
         <v>21</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1136,19 +1149,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="78.55" x14ac:dyDescent="0.3">
@@ -1160,33 +1173,33 @@
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="62.85" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1214,18 +1227,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
